--- a/xlsx/美国例外主义_intext.xlsx
+++ b/xlsx/美国例外主义_intext.xlsx
@@ -15,1361 +15,1349 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
   <si>
     <t>美国例外主义</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BE%8B%E5%A4%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E9%87%8C</t>
+  </si>
+  <si>
+    <t>亚历西斯·托克维里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
+  </si>
+  <si>
+    <t>国际法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%B8%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>霸权主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%B7%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>利己主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>个人主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89</t>
+  </si>
+  <si>
+    <t>平等</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
+  </si>
+  <si>
+    <t>自由放任</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91</t>
+  </si>
+  <si>
+    <t>人民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
+  </si>
+  <si>
+    <t>西欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E7%9A%84%E9%82%A3%E7%BB%B4%E4%BA%9A%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯堪的那维亚半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>共产国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92</t>
+  </si>
+  <si>
+    <t>清教徒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E5%91%BD</t>
+  </si>
+  <si>
+    <t>宿命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%84%8F</t>
+  </si>
+  <si>
+    <t>天意</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>上帝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>道学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97</t>
+  </si>
+  <si>
+    <t>世俗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E6%95%99%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>福音教派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%95%99%E7%BE%A9%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>基本教义派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国独立革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E4%BB%BD%E5%AD%90</t>
+  </si>
+  <si>
+    <t>知识份子</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AD%98</t>
+  </si>
+  <si>
+    <t>常识</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
+  </si>
+  <si>
+    <t>汤玛斯·潘恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>共和主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
+  </si>
+  <si>
+    <t>移民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>爱国主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>民族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%E9%81%9C%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>杰克逊民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%98%AD%E5%A4%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>昭昭天命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>唯物主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>消费主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
+  </si>
+  <si>
+    <t>大众媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>精英主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
+  </si>
+  <si>
+    <t>亚伯拉罕·林肯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%A8%E5%A0%A1%E6%BC%94%E8%AA%AA</t>
+  </si>
+  <si>
+    <t>盖茨堡演说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法兰西共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>联邦主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E6%9A%B4%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>多数暴力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%B5%90%E5%90%88</t>
+  </si>
+  <si>
+    <t>公民结合</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
+  </si>
+  <si>
+    <t>贵族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>公民权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>言论自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>投票权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BD%AA%E6%8E%A8%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>无罪推定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>选举权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>俄国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>美国独立战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>自由民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>英国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2</t>
+  </si>
+  <si>
+    <t>君主立宪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>法国大革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%86%9C%E9%99%8B%E7%9A%84%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>丑陋的美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%84%AA%E8%B6%8A%E6%84%9F</t>
+  </si>
+  <si>
+    <t>民族优越感</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%96%87%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>沙文主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E7%9A%84%E8%B4%9F%E6%8B%85</t>
+  </si>
+  <si>
+    <t>白人的负担</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>反美主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
+  </si>
+  <si>
+    <t>价值观外交</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Seymour_Martin_Lipset</t>
+  </si>
+  <si>
+    <t>Seymour Martin Lipset</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>Template talk-美国索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美利堅合眾國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E9%87%8C</t>
-  </si>
-  <si>
-    <t>亞歷西斯·托克維里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
-  </si>
-  <si>
-    <t>國際法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%B8%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>霸權主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%B7%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>利己主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>個人主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89</t>
-  </si>
-  <si>
-    <t>平等</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
-  </si>
-  <si>
-    <t>自由放任</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>資本主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91</t>
-  </si>
-  <si>
-    <t>人民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
-  </si>
-  <si>
-    <t>西歐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E7%9A%84%E9%82%A3%E7%BB%B4%E4%BA%9A%E5%8D%8A%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯堪的那维亚半岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
-  </si>
-  <si>
-    <t>北歐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>共產國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>馬克思主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92</t>
-  </si>
-  <si>
-    <t>清教徒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E5%91%BD</t>
-  </si>
-  <si>
-    <t>宿命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%84%8F</t>
-  </si>
-  <si>
-    <t>天意</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
-  </si>
-  <si>
-    <t>上帝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>道學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97</t>
-  </si>
-  <si>
-    <t>世俗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E9%9F%B3%E6%95%99%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>福音教派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%95%99%E7%BE%A9%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>基本教義派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美國獨立革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E4%BB%BD%E5%AD%90</t>
-  </si>
-  <si>
-    <t>知識份子</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%AD%98</t>
-  </si>
-  <si>
-    <t>常識</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
-  </si>
-  <si>
-    <t>湯瑪斯·潘恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>共和主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
-  </si>
-  <si>
-    <t>移民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>愛國主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>民族主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>澳大利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%E9%81%9C%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>傑克遜民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%98%AD%E5%A4%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>昭昭天命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>唯物主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>消費主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>冷戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
-  </si>
-  <si>
-    <t>大眾媒體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>共產主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>精英主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
-  </si>
-  <si>
-    <t>亞伯拉罕·林肯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%A8%E5%A0%A1%E6%BC%94%E8%AA%AA</t>
-  </si>
-  <si>
-    <t>蓋茨堡演說</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法蘭西共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>聯邦主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E6%9A%B4%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>多數暴力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%B5%90%E5%90%88</t>
-  </si>
-  <si>
-    <t>公民結合</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
-  </si>
-  <si>
-    <t>貴族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>公民權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>言論自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>投票權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BD%AA%E6%8E%A8%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>无罪推定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>選舉權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>俄國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>美國獨立戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>自由民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>英國內戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2</t>
-  </si>
-  <si>
-    <t>君主立憲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>法國大革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%9C%E9%99%8B%E7%9A%84%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>醜陋的美國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%84%AA%E8%B6%8A%E6%84%9F</t>
-  </si>
-  <si>
-    <t>民族優越感</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%96%87%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>沙文主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E7%9A%84%E8%B4%9F%E6%8B%85</t>
-  </si>
-  <si>
-    <t>白人的负担</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>反美主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80%E5%A4%96%E4%BA%A4</t>
-  </si>
-  <si>
-    <t>價值觀外交</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Seymour_Martin_Lipset</t>
-  </si>
-  <si>
-    <t>Seymour Martin Lipset</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>Template talk-美国索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
   </si>
   <si>
@@ -1385,19 +1373,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1409,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1779,7 +1767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I236"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4585,7 +4573,7 @@
         <v>193</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4611,10 +4599,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4640,10 +4628,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4669,10 +4657,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4698,10 +4686,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4727,10 +4715,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4756,10 +4744,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4785,10 +4773,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4814,10 +4802,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4843,10 +4831,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4872,10 +4860,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4901,10 +4889,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4930,10 +4918,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4959,10 +4947,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4988,10 +4976,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5017,10 +5005,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5046,10 +5034,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5075,10 +5063,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5104,10 +5092,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5133,10 +5121,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5162,10 +5150,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5191,10 +5179,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5220,10 +5208,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5249,10 +5237,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5278,10 +5266,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -5307,10 +5295,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5336,10 +5324,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5365,10 +5353,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5394,10 +5382,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5423,10 +5411,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5452,10 +5440,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5481,10 +5469,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5510,10 +5498,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5539,10 +5527,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5568,10 +5556,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5597,10 +5585,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5626,10 +5614,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5655,10 +5643,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5684,10 +5672,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5713,10 +5701,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5742,10 +5730,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5771,10 +5759,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5800,10 +5788,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5829,10 +5817,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5858,10 +5846,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5887,10 +5875,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5916,10 +5904,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5945,10 +5933,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5974,10 +5962,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G145" t="n">
         <v>16</v>
@@ -6003,10 +5991,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6032,10 +6020,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6061,10 +6049,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6090,10 +6078,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6119,10 +6107,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6148,10 +6136,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6177,10 +6165,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6206,10 +6194,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6235,10 +6223,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6264,10 +6252,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6293,10 +6281,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6322,10 +6310,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6351,10 +6339,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -6380,10 +6368,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6409,10 +6397,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6438,10 +6426,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6467,10 +6455,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6496,10 +6484,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -6525,10 +6513,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6554,10 +6542,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6583,10 +6571,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6612,10 +6600,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6641,10 +6629,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6670,10 +6658,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6699,10 +6687,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6728,10 +6716,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6757,10 +6745,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6786,10 +6774,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6815,10 +6803,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6844,10 +6832,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6873,10 +6861,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6902,10 +6890,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6931,10 +6919,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6960,10 +6948,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6989,10 +6977,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7018,10 +7006,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7047,10 +7035,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7076,10 +7064,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7105,10 +7093,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7134,10 +7122,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7163,10 +7151,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7192,10 +7180,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7221,10 +7209,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7250,10 +7238,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7279,10 +7267,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7308,10 +7296,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F191" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -7337,10 +7325,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7366,10 +7354,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F193" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7395,10 +7383,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F194" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7424,10 +7412,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F195" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7453,10 +7441,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F196" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7482,10 +7470,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F197" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7511,10 +7499,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F198" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7540,10 +7528,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F199" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -7569,10 +7557,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F200" t="s">
-        <v>400</v>
+        <v>14</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -7598,10 +7586,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F201" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7627,10 +7615,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F202" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7656,10 +7644,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F203" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7685,10 +7673,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F204" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7714,10 +7702,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F205" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7743,10 +7731,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F206" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7772,10 +7760,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F207" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7801,10 +7789,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F208" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G208" t="n">
         <v>7</v>
@@ -7830,10 +7818,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F209" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7859,10 +7847,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F210" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7888,10 +7876,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F211" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7917,10 +7905,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F212" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7946,10 +7934,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F213" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7975,10 +7963,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F214" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8004,10 +7992,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F215" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8033,10 +8021,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F216" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -8062,10 +8050,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8091,10 +8079,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F218" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8120,10 +8108,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F219" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8149,10 +8137,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F220" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8178,10 +8166,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F221" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8207,10 +8195,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F222" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8236,10 +8224,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F223" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8265,10 +8253,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F224" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8294,10 +8282,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F225" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8323,10 +8311,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F226" t="s">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8352,10 +8340,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F227" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8381,10 +8369,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F228" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8410,10 +8398,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F229" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8439,10 +8427,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F230" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8468,13 +8456,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F231" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -8497,13 +8485,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F232" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -8526,10 +8514,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F233" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8555,10 +8543,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F234" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8584,13 +8572,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F235" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -8613,18 +8601,47 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F236" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
       </c>
       <c r="I236" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>236</v>
+      </c>
+      <c r="E237" t="s">
+        <v>465</v>
+      </c>
+      <c r="F237" t="s">
+        <v>467</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="s">
+        <v>4</v>
+      </c>
+      <c r="I237" t="n">
         <v>3</v>
       </c>
     </row>
